--- a/biology/Zoologie/Hemiargus_ceraunus/Hemiargus_ceraunus.xlsx
+++ b/biology/Zoologie/Hemiargus_ceraunus/Hemiargus_ceraunus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiargus ceraunus est une espèce de lépidoptères (papillons) américains de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiargus ceraunus est appelé Ceraunus Blue ou Antillean Blue en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiargus ceraunus est appelé Ceraunus Blue ou Antillean Blue en anglais.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago d'Hemiargus ceraunus est un petit papillon d'une envergure de 20 à 30 mm aux antennes annelées de blanc et de noir[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d'Hemiargus ceraunus est un petit papillon d'une envergure de 20 à 30 mm aux antennes annelées de blanc et de noir.
 Le dessus du mâle est de couleur bleue, celui de la femelle marron foncé.
 Le revers est gris orné de lignes de traits marron cernés de blanc et d'une bande marginale de chevrons avec, à l'aile postérieure, un ocelle noir qui remplace un des chevrons.
 			Dessus d'une femelle.
@@ -580,10 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-Aux États-Unis, Hemiargus ceraunus vole toute l'année au Texas et en Floride et à la fin de l'été dans les autres régions[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Astragalus, Chamaecrista, Phaseolus et Prosopis[1].
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, Hemiargus ceraunus vole toute l'année au Texas et en Floride et à la fin de l'été dans les autres régions.
 </t>
         </is>
       </c>
@@ -609,15 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de répartition
-Hemiargus ceraunus est résident dans le Sud des  États-Unis (Texas, Californie) et migrateur en Floride et jusqu'en Caroline du Nord, au Missouri, au Kansas et au Nevada. Il est également résident au Mexique et en Amérique Centrale[1],[2]. Il est aussi présent aux Antilles, notamment à Cuba, aux îles Caïmans, à la Jamaïque, sur Hispaniola et aux Bahamas[3] (mais sur certaines îles il pourrait s'agir de l'espèce voisine Hemiargus hanno).
-Biotopes
-Aux États-Unis, l'espèce réside dans les milieux sablonneux et au bord des routes[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Astragalus, Chamaecrista, Phaseolus et Prosopis.
 </t>
         </is>
       </c>
@@ -643,20 +665,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Distribution et biotopes</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L'espèce aujourd'hui appelée Hemiargus ceraunus a été décrite par l'entomologiste danois Johan Christian Fabricius en 1793 sous le nom initial d'Hesperia ceraunus[4],[1]. Elle a ensuite été placée dans le genre Hemiargus Hübner, 1818.
-Elle a parfois été considérée comme une sous-espèce d'Hemiargus hanno[1].
-Sous-espèces
-Hemiargus ceraunus a plusieurs sous-espèces géographiques, dont la liste exacte varie en fonction des sources :
-Hemiargus ceraunus ceraunus (Fabricius, 1793) — Jamaïque, Hispaniola, une partie des Bahamas[3].
-Hemiargus ceraunus antibubastus Hübner, [1818] — Floride, Grand Bahama[3],[1].
-Hemiargus ceraunus astenidas (Lucas, 1857) — Texas, du Mexique au Panama[3],[1].
-Hemiargus ceraunus gyas (Edwards, 1871) — Sud-Ouest des États-Unis (Arizona, Californie) et Nord-Ouest du Mexique[3],[1]
-Hemiargus ceraunus filenus (Poey, 1832) — Cuba, îles Caïmans, Grand Turk, Great Inagua[3] – parfois considérée comme une sous-espèce d'Hemiargus hanno[5].</t>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiargus ceraunus est résident dans le Sud des  États-Unis (Texas, Californie) et migrateur en Floride et jusqu'en Caroline du Nord, au Missouri, au Kansas et au Nevada. Il est également résident au Mexique et en Amérique Centrale,. Il est aussi présent aux Antilles, notamment à Cuba, aux îles Caïmans, à la Jamaïque, sur Hispaniola et aux Bahamas (mais sur certaines îles il pourrait s'agir de l'espèce voisine Hemiargus hanno).
+</t>
         </is>
       </c>
     </row>
@@ -681,12 +702,126 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, l'espèce réside dans les milieux sablonneux et au bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce aujourd'hui appelée Hemiargus ceraunus a été décrite par l'entomologiste danois Johan Christian Fabricius en 1793 sous le nom initial d'Hesperia ceraunus,. Elle a ensuite été placée dans le genre Hemiargus Hübner, 1818.
+Elle a parfois été considérée comme une sous-espèce d'Hemiargus hanno.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hemiargus ceraunus a plusieurs sous-espèces géographiques, dont la liste exacte varie en fonction des sources :
+Hemiargus ceraunus ceraunus (Fabricius, 1793) — Jamaïque, Hispaniola, une partie des Bahamas.
+Hemiargus ceraunus antibubastus Hübner,  — Floride, Grand Bahama,.
+Hemiargus ceraunus astenidas (Lucas, 1857) — Texas, du Mexique au Panama,.
+Hemiargus ceraunus gyas (Edwards, 1871) — Sud-Ouest des États-Unis (Arizona, Californie) et Nord-Ouest du Mexique,
+Hemiargus ceraunus filenus (Poey, 1832) — Cuba, îles Caïmans, Grand Turk, Great Inagua – parfois considérée comme une sous-espèce d'Hemiargus hanno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiargus_ceraunus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier[2].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.
 </t>
         </is>
       </c>
